--- a/assets/findings/2024-03-03-findings.xlsx
+++ b/assets/findings/2024-03-03-findings.xlsx
@@ -624,8 +624,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -657,8 +659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -723,8 +727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -756,8 +762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -822,8 +830,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -855,8 +865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -921,8 +933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -954,8 +968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1020,8 +1036,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1053,8 +1071,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1119,8 +1139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1152,8 +1174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1387,8 +1411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -1420,8 +1446,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1486,8 +1514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -1519,8 +1549,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1585,8 +1617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -1618,8 +1652,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1684,8 +1720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -1717,8 +1755,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1783,8 +1823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1816,8 +1858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1882,8 +1926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1915,8 +1961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1981,8 +2029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -2014,8 +2064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2080,8 +2132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -2113,8 +2167,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2179,8 +2235,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2212,8 +2270,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -2278,8 +2338,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2311,8 +2373,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -2377,8 +2441,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2410,8 +2476,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -2476,8 +2544,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2509,8 +2579,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2575,8 +2647,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2608,8 +2682,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2674,8 +2750,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2707,8 +2785,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2773,8 +2853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2806,8 +2888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2872,8 +2956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2905,8 +2991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -3160,8 +3248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3193,8 +3283,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3259,8 +3351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3292,8 +3386,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3358,8 +3454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3391,8 +3489,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3457,8 +3557,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3490,8 +3592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3556,8 +3660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3589,8 +3695,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3655,8 +3763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3688,8 +3798,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3923,8 +4035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -3956,8 +4070,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4022,8 +4138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -4055,8 +4173,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4121,8 +4241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -4154,8 +4276,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4220,8 +4344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -4253,8 +4379,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4319,8 +4447,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -4352,8 +4482,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4418,8 +4550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -4451,8 +4585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -4517,8 +4653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -4550,8 +4688,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4616,8 +4756,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -4649,8 +4791,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4715,8 +4859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -4748,8 +4894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -4814,8 +4962,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -4847,8 +4997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -4913,8 +5065,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4946,8 +5100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -5012,8 +5168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -5045,8 +5203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -5111,8 +5271,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -5144,8 +5306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -5210,8 +5374,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -5243,8 +5409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -5309,8 +5477,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -5342,8 +5512,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -5408,8 +5580,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -5441,8 +5615,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
